--- a/data/trans_orig/Q5418_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>5539</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2572</v>
+        <v>2562</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10530</v>
+        <v>10156</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08319506879739293</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03863748655821644</v>
+        <v>0.0384753374587744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1581654144638182</v>
+        <v>0.1525365091219177</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -762,19 +762,19 @@
         <v>21742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15977</v>
+        <v>16061</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29188</v>
+        <v>28897</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1520290245687777</v>
+        <v>0.1520290245687778</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1117156575840562</v>
+        <v>0.1123063110918927</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2040931444847366</v>
+        <v>0.2020606894718619</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -783,19 +783,19 @@
         <v>27281</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20765</v>
+        <v>20968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34905</v>
+        <v>35982</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1301632077329611</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09907599012073477</v>
+        <v>0.1000413665277335</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1665374469856613</v>
+        <v>0.1716753285974552</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>9752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5395</v>
+        <v>5896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15691</v>
+        <v>15033</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.146468918588403</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08103144795530368</v>
+        <v>0.08855877393014036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2356735997882319</v>
+        <v>0.2257955980280503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -833,19 +833,19 @@
         <v>25159</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18487</v>
+        <v>19314</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31871</v>
+        <v>32503</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1759180671285782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1292661352876009</v>
+        <v>0.1350537252875159</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2228538403278316</v>
+        <v>0.2272731691801975</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -854,19 +854,19 @@
         <v>34910</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26655</v>
+        <v>27460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43175</v>
+        <v>44814</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1665632410004841</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1271739111628071</v>
+        <v>0.131017617534384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2059962823017702</v>
+        <v>0.2138167474725883</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>51288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45124</v>
+        <v>44689</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56417</v>
+        <v>56011</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.770336012614204</v>
+        <v>0.7703360126142043</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6777505095436229</v>
+        <v>0.6712151617607574</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8473671175255361</v>
+        <v>0.8412776143266907</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>178</v>
@@ -904,19 +904,19 @@
         <v>96112</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>87447</v>
+        <v>87982</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>104562</v>
+        <v>104146</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6720529083026441</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.611465343813215</v>
+        <v>0.6152049943213691</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7311388967074693</v>
+        <v>0.7282309598382559</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>248</v>
@@ -925,19 +925,19 @@
         <v>147400</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>137782</v>
+        <v>137287</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>157887</v>
+        <v>157176</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7032735512665549</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6573836361237957</v>
+        <v>0.6550244759960916</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.753312157284117</v>
+        <v>0.7499156750828682</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>21410</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15331</v>
+        <v>15047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28894</v>
+        <v>28611</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1068484599549911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07651025205594823</v>
+        <v>0.07509661983248311</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1441993877306809</v>
+        <v>0.1427858932143127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -1050,19 +1050,19 @@
         <v>36466</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28246</v>
+        <v>28779</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45615</v>
+        <v>46031</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1206141356013653</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09342481209514099</v>
+        <v>0.09518803669033019</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1508745651576539</v>
+        <v>0.1522512802061336</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>109</v>
@@ -1071,19 +1071,19 @@
         <v>57876</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47165</v>
+        <v>48042</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>69543</v>
+        <v>70530</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.11512730291695</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09382156373414824</v>
+        <v>0.0955664961235751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1383361892611618</v>
+        <v>0.1402984413546104</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>17245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11737</v>
+        <v>11781</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24989</v>
+        <v>24802</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08606504843159934</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05857621216272391</v>
+        <v>0.05879351783522679</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.124713286622525</v>
+        <v>0.1237778267792418</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>73</v>
@@ -1121,19 +1121,19 @@
         <v>37811</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29562</v>
+        <v>29690</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>45913</v>
+        <v>46472</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.125064066617928</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09777841402803501</v>
+        <v>0.09820087285097208</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1518606414938639</v>
+        <v>0.153708106681377</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>99</v>
@@ -1142,19 +1142,19 @@
         <v>55057</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>45744</v>
+        <v>44730</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>66435</v>
+        <v>65575</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1095195272039678</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09099465058818523</v>
+        <v>0.088977743154508</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1321534058904029</v>
+        <v>0.1304427477330441</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>161720</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151916</v>
+        <v>151396</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169575</v>
+        <v>169573</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8070864916134095</v>
+        <v>0.8070864916134096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7581603297371013</v>
+        <v>0.7555645727413624</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8462900221517946</v>
+        <v>0.8462766350024183</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>423</v>
@@ -1192,19 +1192,19 @@
         <v>228059</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>217635</v>
+        <v>215984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>239731</v>
+        <v>238297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7543217977807066</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7198432002966297</v>
+        <v>0.7143806266574798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7929262009221493</v>
+        <v>0.7881838114609944</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>654</v>
@@ -1213,19 +1213,19 @@
         <v>389779</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>374422</v>
+        <v>374510</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>403213</v>
+        <v>403429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7753531698790821</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.744805124739926</v>
+        <v>0.7449788792728533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8020754903371839</v>
+        <v>0.8025048324559502</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>15677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10512</v>
+        <v>10443</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21911</v>
+        <v>22776</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06836520051106129</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04584193694397785</v>
+        <v>0.04553892225816364</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09555022293498264</v>
+        <v>0.09932349188415619</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -1338,19 +1338,19 @@
         <v>23216</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17066</v>
+        <v>16777</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31467</v>
+        <v>30484</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09843179854287495</v>
+        <v>0.09843179854287497</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07235360368400609</v>
+        <v>0.07112909591906495</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1334135693281917</v>
+        <v>0.1292431350770218</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -1359,19 +1359,19 @@
         <v>38894</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29794</v>
+        <v>30915</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>47847</v>
+        <v>49313</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08361013520348079</v>
+        <v>0.08361013520348078</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06404753816650467</v>
+        <v>0.06645950243573835</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1028580512980272</v>
+        <v>0.1060081770600345</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>7957</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4645</v>
+        <v>4489</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13173</v>
+        <v>12836</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03469937352466628</v>
+        <v>0.03469937352466629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02025643812185396</v>
+        <v>0.01957570884987644</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05744643099008735</v>
+        <v>0.05597438399762709</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1409,19 +1409,19 @@
         <v>17265</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12221</v>
+        <v>11908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23429</v>
+        <v>23238</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07320015665897597</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05181554726369546</v>
+        <v>0.05048698053180715</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0993339744392297</v>
+        <v>0.09852461998019005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -1430,19 +1430,19 @@
         <v>25222</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19102</v>
+        <v>19564</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32280</v>
+        <v>34148</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05422076812569529</v>
+        <v>0.0542207681256953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04106338335745432</v>
+        <v>0.04205770414062616</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06939356401780954</v>
+        <v>0.07340933755976516</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>205680</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>197649</v>
+        <v>196675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212003</v>
+        <v>211875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8969354259642723</v>
+        <v>0.8969354259642724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8619132080578706</v>
+        <v>0.8576653937401341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9245101959064757</v>
+        <v>0.9239498928543035</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>371</v>
@@ -1480,19 +1480,19 @@
         <v>195381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>186444</v>
+        <v>186669</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>203584</v>
+        <v>203208</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8283680447981491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7904756884904092</v>
+        <v>0.791428354175657</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8631453542460544</v>
+        <v>0.8615523278197188</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>658</v>
@@ -1501,19 +1501,19 @@
         <v>401062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>390353</v>
+        <v>389149</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>413045</v>
+        <v>411129</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.862169096670824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8391481101296064</v>
+        <v>0.8365587016458653</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8879283113407953</v>
+        <v>0.8838096880430772</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>10662</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6268</v>
+        <v>6261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16734</v>
+        <v>16629</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05054457550153441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02971664379238668</v>
+        <v>0.02968350406297296</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07932831031158574</v>
+        <v>0.07883455987735342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1626,19 +1626,19 @@
         <v>9708</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5882</v>
+        <v>6004</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15407</v>
+        <v>15923</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04658700476814102</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02822706251349307</v>
+        <v>0.02881309704817847</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07393918308151158</v>
+        <v>0.07641516956325761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1647,19 +1647,19 @@
         <v>20369</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14579</v>
+        <v>14385</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28583</v>
+        <v>28156</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04857790130347473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03476928660169797</v>
+        <v>0.03430606786487957</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06816635718315024</v>
+        <v>0.06714858210820503</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>18209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11493</v>
+        <v>12076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26339</v>
+        <v>26860</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0863226440801521</v>
+        <v>0.08632264408015212</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05448352362956185</v>
+        <v>0.05724726198318829</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1248664978987336</v>
+        <v>0.1273321229393</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -1697,19 +1697,19 @@
         <v>17823</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11812</v>
+        <v>12092</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24881</v>
+        <v>24611</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08553468509348015</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05668661952686076</v>
+        <v>0.05802908736852305</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1194057732541875</v>
+        <v>0.118110668111457</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -1718,19 +1718,19 @@
         <v>36032</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26411</v>
+        <v>27432</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45811</v>
+        <v>46651</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08593107594085363</v>
+        <v>0.08593107594085364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06298612209956561</v>
+        <v>0.06542007420416392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1092523458220356</v>
+        <v>0.1112546742632956</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>182070</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>173394</v>
+        <v>172154</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190480</v>
+        <v>189837</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8631327804183134</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8220009624240738</v>
+        <v>0.8161257751616232</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9030021208589977</v>
+        <v>0.8999513121283946</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>346</v>
@@ -1768,19 +1768,19 @@
         <v>180844</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>172410</v>
+        <v>172230</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>187558</v>
+        <v>187666</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8678783101383787</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8274047930019479</v>
+        <v>0.8265398109692613</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9000990296397711</v>
+        <v>0.9006189389009243</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>604</v>
@@ -1789,19 +1789,19 @@
         <v>362913</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>351699</v>
+        <v>350939</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>374922</v>
+        <v>373062</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8654910227556716</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.838746770335454</v>
+        <v>0.836933690496945</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8941297501535519</v>
+        <v>0.8896947277185541</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>53288</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42299</v>
+        <v>42678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65004</v>
+        <v>65008</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07534946016582492</v>
+        <v>0.07534946016582493</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05981054677310436</v>
+        <v>0.06034723178237032</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0919160881925012</v>
+        <v>0.09192167681242737</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>172</v>
@@ -1914,19 +1914,19 @@
         <v>91132</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78370</v>
+        <v>77534</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106933</v>
+        <v>106558</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1024431886430692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08809687054829625</v>
+        <v>0.08715695537163826</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1202056916031843</v>
+        <v>0.1197839206678288</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>262</v>
@@ -1935,19 +1935,19 @@
         <v>144420</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127492</v>
+        <v>127550</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161476</v>
+        <v>164938</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09044357844413613</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07984256725942722</v>
+        <v>0.07987893915423246</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1011249595381418</v>
+        <v>0.1032928921912491</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>53163</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42450</v>
+        <v>42694</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>65912</v>
+        <v>66659</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07517303463400654</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06002529975364901</v>
+        <v>0.06037007749307885</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09319974968211948</v>
+        <v>0.09425606386265786</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>188</v>
@@ -1985,19 +1985,19 @@
         <v>98058</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>84048</v>
+        <v>85167</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>112448</v>
+        <v>112195</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1102291629431239</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09448019658693901</v>
+        <v>0.09573776261244175</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.126405206410477</v>
+        <v>0.1261200333936535</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>267</v>
@@ -2006,19 +2006,19 @@
         <v>151221</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>135118</v>
+        <v>134881</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>171829</v>
+        <v>168671</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09470306526533487</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08461820182260413</v>
+        <v>0.08446981147897964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1076084251806788</v>
+        <v>0.1056311619060586</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>600758</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>584577</v>
+        <v>583014</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>616334</v>
+        <v>614410</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8494775052001685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8265967943964871</v>
+        <v>0.8243875364707806</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8715013620639011</v>
+        <v>0.8687814960793653</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1318</v>
@@ -2056,19 +2056,19 @@
         <v>700396</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>681246</v>
+        <v>681612</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>718540</v>
+        <v>718085</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7873276484138069</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7658002399258913</v>
+        <v>0.7662113110507047</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8077235051468623</v>
+        <v>0.8072111926253499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2164</v>
@@ -2077,19 +2077,19 @@
         <v>1301155</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1277511</v>
+        <v>1275399</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1325505</v>
+        <v>1321735</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.814853356290529</v>
+        <v>0.8148533562905291</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8000465286115468</v>
+        <v>0.7987237259669477</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8301026578492182</v>
+        <v>0.8277421658707753</v>
       </c>
     </row>
     <row r="23">
